--- a/data/labelled_sample.xlsx
+++ b/data/labelled_sample.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test set" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>CONTENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,6 +1235,660 @@
   </si>
   <si>
     <t>会议认为，发展通用航空业，有利于完善综合交通体系，培育新增长点，带动扩大就业和服务业升级。为此，一要加快在偏远地区和地面交通不便、自然灾害多发地区和人口密集、地面交通拥堵严重的城市建设通用机场，在农产品主产区、重点国有林区等发展通用航空，满足抢险救灾、应急救援、医疗救护、工农林业发展等需要。合理确定通用机场标准，鼓励企业和个人参与建设。二要加快通用飞机、导航通信等核心装备研发应用，培育具有国际竞争力的通用航空企业。扩大通用航空在资源勘查、环境监测、运输服务等领域的应用。三要稳步扩大低空空域开放，简化通用航空飞行任务审批备案。强化安全监管，确保飞行和空防安全。</t>
+  </si>
+  <si>
+    <r>
+      <t>重大水利工程是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两新一重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建设的重要内容。会议围绕防洪减灾、水资源优化配置、水生态保护修复等，研究了今年及后续</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项重大水利工程建设安排，要求抓紧推进建设，促进扩大有效投资，增强防御水旱灾害能力。会议强调，要按照市场化、法治化原则，深化投融资体制机制改革，落实水价标准和收费制度，建立合理回报机制，扩大股权和债权融资规模，以市场化改革推动加快水利工程建设。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>国务院总理李克强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日主持召开国务院常务会议，部署促进消费品标准和质量提升，增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国制造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有效供给满足消费升级需求。</t>
+    </r>
+  </si>
+  <si>
+    <t>实施创新驱动发展战略。着力打通科技成果转化通道，扩大中关村国家自主创新示范区试点政策实施范围，推进科技资源开放共享，科技人员创新活力不断释放。超级计算、探月工程、卫星应用等重大科研项目取得新突破，我国自主研制的支线客机飞上蓝天。</t>
+  </si>
+  <si>
+    <r>
+      <t>加快培育消费增长点。鼓励大众消费，控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消费。促进养老家政健康消费，壮大信息消费，提升旅游休闲消费，推动绿色消费，稳定住房消费，扩大教育文化体育消费。全面推进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三网</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>融合，加快建设光纤网络，大幅提升宽带网络速率，发展物流快递，把以互联网为载体、线上线下互动</t>
+    </r>
+  </si>
+  <si>
+    <t>会议通过《中华人民共和国固体废物污染环境防治法（修订草案）》。草案强化工业固体废物产生者的责任，完善排污许可制度，要求加快建立生活垃圾分类投放、收集、运输、处理系统。会议决定将草案提请全国人大常委会审议。</t>
+  </si>
+  <si>
+    <t>会议指出，改革完善医疗卫生行业综合监管制度，对维护人民群众健康权益具有重要意义。要准确把握医疗卫生事业发展的规律和特点，转变监督管理的理念、体制和方式，从重点监管公立医疗卫生机构转向全行业监管，从注重事前审批转向注重事中事后全流程监管，从单向监管转向综合协同监管，提高监管能力和水平。</t>
+  </si>
+  <si>
+    <t>会议指出，高等学校所属企业体制改革，要坚持国有资产管理体制改革方向，尊重教育规律和市场经济规律，对高校所属企业进行全面清理规范，理清产权和责任关系，分类实施改革工作，促进高校集中精力办学、实现内涵式发展。</t>
+  </si>
+  <si>
+    <r>
+      <t>推动外贸转型升级。完善出口退税负担机制，自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年起增量部分由中央财政全额负担，让地方和企业吃上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定心丸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。清理规范进出口环节收费，建立并公开收费项目清单。实施培育外贸竞争新优势的政策措施，促进加工贸易转型，发展外贸综合服务平台和市场采购贸易，扩大跨境电子商务综合试点，增加服务外包示范城市数量，提高服务贸易比重。实施更加积极的进口政策，扩大先进技术、关键设备、重要零部件等进口。</t>
+    </r>
+  </si>
+  <si>
+    <t>会议指出，探索建立涉农资金统筹整合长效机制，是推进农业供给侧结构性改革的重要途径。要加强财政支农政策顶层设计，优化财政支农投入供给，推进行业内资金整合与行业间资金统筹相互衔接配合，理顺涉农资金管理体系，创新涉农资金使用管理机制，改革和完善农村投融资体制，切实提高国家支农政策效果和支农资金使用效益。</t>
+  </si>
+  <si>
+    <r>
+      <t>加大对公益性文化事业扶持力度，完善文化产业政策，发挥市场机制作用，促进文化事业和文化产业共同发展。搞好文物、档案工作和自然、文化遗产保护工作。继续加强文化市场和互联网的建设与管理，坚持不懈地进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扫黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斗争。积极扩大对外文化交流。广泛开展全民健身运动，努力提高竞技体育水平。继续做好２００８年北京奥运会和２０１０年上海世界博览会的准备工作。</t>
+    </r>
+  </si>
+  <si>
+    <t>会议强调，要加大民生托底保障力度。要实施好就业优先政策，鼓励灵活就业，做好重点群体就业工作。要强化城镇困难群众基本生活保障，做好基本民生商品保供稳价工作。做好疫情导致的无供养困难人群保障。及时抚恤疫情防控中因公殉职的医务人员、干部职工、社区工作者等，妥善照顾他们的家属。</t>
+  </si>
+  <si>
+    <r>
+      <t>会议指出，脱贫攻坚工作在党和国家工作全局中具有重要地位。党的十八大确定了到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年全面建成小康社会的目标，其中最难实现的就是农村贫困人口脱贫、贫困县摘帽、消除区域性整体贫困。实现这个目标是我们党对人民的庄严承诺。必须把从严要求贯穿脱贫攻坚工作全过程、各方面，严格落实脱贫攻坚工作报告制度、责任制度、考核制度、督查巡查制度，确保实现脱贫攻坚工作目标任务。</t>
+    </r>
+  </si>
+  <si>
+    <t>会议要求，春节临近，各地各部门要多措并举，加强统筹协调，全力做好市场保供稳价工作，保障好困难群众基本生活，让人民群众过一个欢乐、祥和、安宁的春节。</t>
+  </si>
+  <si>
+    <t>会议指出，新时代加快完善社会主义市场经济体制，要全面贯彻新发展理念，充分发挥市场在资源配置中的决定性作用，更好发挥政府作用，深化市场化改革，扩大高水平开放，按照系统集成、协同高效的要求纵深推进，在精准实施、精准落实上下足功夫，在关键性基础性重大改革上突破创新。</t>
+  </si>
+  <si>
+    <r>
+      <t>会议指出，中央授权海南开展省域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>多规合一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改革试点一年来，海南结合实际，积极推进改革探索，梳理化解规划矛盾，统筹主体功能区、生态保护红线、城镇体系、土地利用、林地保护利用、海洋功能区规划，在推动形成全省统一空间规划体系上迈出了步子、探索了经验。深入推进这项改革，要着重解决好体制机制问题，处理好改革探索和依法推进的关系，一张蓝图干到底。中央有关部门要加强统筹指导。</t>
+    </r>
+  </si>
+  <si>
+    <t>国有企业改革是整个经济体制改革的中心环节。不坚决推进改革，国有企业就没有出路。五年来，我们坚持社会主义市场经济的改革方向，知难而进，敢于碰硬，加大工作力度，打了一场深化国有企业改革的攻坚战。</t>
+  </si>
+  <si>
+    <r>
+      <t>会议指出，要建立与疫情防控相适应的经济社会运行秩序，有序推动复工复产，使人流、物流、资金流有序转动起来，畅通经济社会循环。要制定明确的疫情分区分级标准。复工复产，交通运输是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先行官</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，必须打通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大动脉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，畅通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>微循环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。各级党委和政府要主动服务，有序组织务工人员跨区返岗，努力保障已复工和准备复工企业日常防护物资需求。</t>
+    </r>
+  </si>
+  <si>
+    <t>会议强调，各级财政部门要聚焦军民融合发展重点领域和新兴领域，处理好政府和市场、中央和地方的关系，落实资金保障，引导多元投入，优化资源配置，健全配套政策，更好发挥财政政策在推进军民融合深度发展中的作用。</t>
+  </si>
+  <si>
+    <t>会议指出，营改增试点全面推开后，各行业实际税负总体下降，但由于多种原因，有些金融企业税负增加。随着改革深入，营改增减税效应将更大显现。要适时完善配套措施，做好政策解读和纳税服务，引导企业用好增值税抵扣机制，确保金融业税负只减不增，稳定市场预期。</t>
+  </si>
+  <si>
+    <t>我们要不断加强同发达国家的关系，努力寻求和扩大共同利益的汇合点，通过平等对话与磋商，逐步解决存在的分歧，促进相互关系的稳定发展。</t>
+  </si>
+  <si>
+    <t>在继续防范和化解金融风险的同时，加大金融对经济发展的支持力度。银行要优先为国债项目提供配套贷款，增加对有市场、有效益、有信誉企业的贷款，加大对农业和农村经济、中小企业和服务业的信贷支持，规范发展消费信贷。改善金融服务，加强金融监管。规范发展证券、保险、货币市场。</t>
+  </si>
+  <si>
+    <t>四是持续保障交通物流畅通。物流保通保畅工作机制要不间断协调，保障主干道和微循环畅通，保障港口、站场等集疏运正常运行，及时打通堵点，维护产业链供应链稳定和进出口通畅。</t>
+  </si>
+  <si>
+    <r>
+      <t>确定能源保供增供举措</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提升能源对经济社会发展的保障能力</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1569,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1782,4 +2437,220 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="134.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/labelled_sample.xlsx
+++ b/data/labelled_sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>CONTENT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1889,6 +1889,10 @@
       </rPr>
       <t>提升能源对经济社会发展的保障能力</t>
     </r>
+  </si>
+  <si>
+    <t>会议强调，要有效管控重点风险，守住不发生系统性风险底线。要坚持房子是用来住的、不是用来炒的定位，支持各地从当地实际出发完善房地产政策，支持刚性和改善性住房需求，优化商品房预售资金监管，促进房地产市场平稳健康发展。要及时回应市场关切，稳步推进股票发行注册制改革，积极引入长期投资者，保持资本市场平稳运行。要促进平台经济健康发展，完成平台经济专项整改，实施常态化监管，出台支持平台经济规范健康发展的具体措施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2444,7 +2448,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2469,6 +2473,9 @@
       </c>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
